--- a/Programacion.xlsx
+++ b/Programacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARIA ISABEL\Documents\DOCUMENTOS\Sysdatec\Sysdatec 2023\Tecnico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\DOCUMENTOS\SENA 2024\2758304\Ejecucion\.Actividad de aprendizaje GA7-220501096-AA1\proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046C69A-A47B-4AF1-8821-604884F2A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja Calculo 1" sheetId="3" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="170">
   <si>
     <t>No Lección</t>
   </si>
@@ -681,12 +682,15 @@
   <si>
     <t>Tercera Evaluación</t>
   </si>
+  <si>
+    <t>MARIAS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +738,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -755,7 +767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -813,21 +825,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,13 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -856,46 +873,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,7 +932,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92202800-A83A-4B42-90D6-B7CB23F31B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,7 +987,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92202800-A83A-4B42-90D6-B7CB23F31B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,7 +1042,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92202800-A83A-4B42-90D6-B7CB23F31B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1098,7 +1097,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92202800-A83A-4B42-90D6-B7CB23F31B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1152,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92202800-A83A-4B42-90D6-B7CB23F31B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,24 +1449,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1481,15 +1480,15 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1497,13 +1496,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1511,10 +1510,10 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1525,14 +1524,14 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1543,7 +1542,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1557,7 +1556,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1576,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1591,7 +1590,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1611,37 +1610,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>44985</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1651,11 +1650,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>44999</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1671,17 +1670,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>45006</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1691,17 +1690,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>45013</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1711,11 +1710,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>45027</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1729,17 +1728,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>45034</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1749,31 +1748,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>44341</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>45048</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1787,11 +1786,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>45055</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1807,11 +1806,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>45062</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1827,11 +1826,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="21" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>45069</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1847,11 +1846,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>12</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>45076</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1867,11 +1866,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>13</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1885,20 +1884,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:C4"/>
@@ -1912,69 +1911,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" hidden="1"/>
+    <col min="12" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="1">
         <v>5421</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="17" t="s">
         <v>120</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1992,7 +1991,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2010,7 +2009,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -2028,7 +2027,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -2046,7 +2045,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2064,7 +2063,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2082,7 +2081,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2100,7 +2099,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2118,7 +2117,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2136,7 +2135,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2154,27 +2153,27 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="23" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="23" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="16" t="s">
         <v>150</v>
       </c>
       <c r="E19" s="1"/>
@@ -2198,24 +2197,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2229,15 +2228,15 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2245,13 +2244,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2259,13 +2258,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2273,17 +2272,17 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2291,13 +2290,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2305,19 +2304,19 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2325,13 +2324,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -2339,7 +2338,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2359,37 +2358,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>44989</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>44996</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2399,11 +2398,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>45003</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2419,17 +2418,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>45010</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2439,11 +2438,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>45017</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2459,11 +2458,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>45031</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2479,17 +2478,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>45038</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2499,17 +2498,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>45045</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2519,11 +2518,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>45052</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2539,11 +2538,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>45059</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2559,11 +2558,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>45066</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2579,17 +2578,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="21" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>45073</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2599,14 +2598,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>12</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>45080</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2619,11 +2618,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>13</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>45087</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2637,22 +2636,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F3"/>
@@ -2666,24 +2663,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2697,15 +2694,15 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2713,13 +2710,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2727,13 +2724,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2741,17 +2738,17 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2759,13 +2756,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2773,19 +2770,19 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2793,13 +2790,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -2807,7 +2804,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2827,37 +2824,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>44984</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>44991</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2867,11 +2864,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>44998</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2887,17 +2884,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>45012</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2907,11 +2904,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>45026</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2927,11 +2924,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>45033</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2947,17 +2944,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>45040</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2967,17 +2964,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>45040</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2987,11 +2984,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>45054</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3007,11 +3004,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>45061</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3027,11 +3024,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3047,17 +3044,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="21" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>45075</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -3067,14 +3064,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>12</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>45082</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3087,11 +3084,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>13</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3105,22 +3102,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F3"/>
@@ -3134,24 +3129,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3165,15 +3160,15 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3181,13 +3176,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3195,13 +3190,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3209,17 +3204,17 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3227,13 +3222,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3241,19 +3236,19 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3261,13 +3256,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3275,7 +3270,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3295,37 +3290,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>44989</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>44996</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3335,11 +3330,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>45003</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3355,17 +3350,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>45010</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3375,17 +3370,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>45017</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3395,11 +3390,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>45031</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3413,17 +3408,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>45038</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -3433,17 +3428,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>45045</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -3453,11 +3448,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>45052</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3471,11 +3466,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>45059</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3491,11 +3486,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>45066</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3511,11 +3506,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="21" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>45073</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3531,17 +3526,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>12</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>45080</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -3551,11 +3546,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>13</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3569,20 +3564,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F3"/>
@@ -3596,24 +3591,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3627,15 +3622,15 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3643,13 +3638,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3657,13 +3652,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3671,17 +3666,17 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3689,13 +3684,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3703,19 +3698,19 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3723,13 +3718,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3737,7 +3732,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3757,43 +3752,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>0</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>44987</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>44994</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>152</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>45001</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3805,27 +3800,27 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>45008</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>45015</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3837,11 +3832,11 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>45029</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3853,43 +3848,43 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>45036</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>44343</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>163</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>45050</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3901,11 +3896,11 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>45055</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3915,11 +3910,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>45062</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3929,11 +3924,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="21" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>45069</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3943,25 +3938,25 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>12</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>45076</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>13</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3971,20 +3966,24 @@
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F3"/>
